--- a/outputs/ML_Results/mode_MNLR/Madrid.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Madrid.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ9" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ15" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ13" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32266441" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25900342" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18786055" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ16911695" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ12144344" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1181,7 +1181,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2187,7 +2187,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3199,7 +3199,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4231,7 +4231,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5245,7 +5245,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
